--- a/2025/10/2025-10-30/30_ai.full_fixtures.xlsx
+++ b/2025/10/2025-10-30/30_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kalju FC  - Viimsi JK: 0:1'</t>
+          <t>Kalju FC X - Viimsi JK: 0:1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -598,9 +598,17 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -746,7 +754,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Harju JK Laagri - FC Nomme United : 0:1'</t>
+          <t>Harju JK Laagri - FC Nomme United ✓: 0:1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -765,9 +773,17 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1043,7 +1059,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kuopion Palloseura  - IF Gnistan: 1:1'</t>
+          <t>Kuopion Palloseura  - IF Gnistan: 1:1</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1089,7 +1105,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad - Red Star Belgrade : 0:1'</t>
+          <t>FK Vojvodina Novi Sad - Red Star Belgrade : 0:2'</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1717,7 +1733,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fakel Voronezh  - Arsenal Tula: 1:1'</t>
+          <t>Fakel Voronezh  - Arsenal Tula: 1:2'</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -5137,7 +5153,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Al-Sadd SC - Al-Rayyan SC : 2:1'</t>
+          <t>Al-Sadd SC - Al-Rayyan SC : 3:1'</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -9061,36 +9077,6 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr"/>
     </row>
-    <row r="445">
-      <c r="A445" t="inlineStr"/>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - : </t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr"/>
-      <c r="D445" t="inlineStr"/>
-      <c r="E445" t="inlineStr"/>
-      <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr"/>
-      <c r="I445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr"/>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - : </t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr"/>
-      <c r="D446" t="inlineStr"/>
-      <c r="E446" t="inlineStr"/>
-      <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr"/>
-      <c r="H446" t="inlineStr"/>
-      <c r="I446" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
